--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-09_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-09_end.xlsx
@@ -1124,7 +1124,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch'en"]  (I even made sure to prepare for ranged attacks, but how does he pack this much firepower…?)
+    <t xml:space="preserve">[name="Ch'en"]  (I even made sure to prepare for ranged attacks, but how does he pack this much firepower...?)
 </t>
   </si>
   <si>
@@ -1536,7 +1536,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch'en"]  You aren’t worth of it, no matter what.
+    <t xml:space="preserve">[name="Ch'en"]  You aren't worth of it, no matter what.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-09_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-09_end.xlsx
@@ -1792,7 +1792,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="리유니온 멤버"]  ……윽, 으윽…….
+    <t xml:space="preserve">[name="리유니온 멤버"]  ……윽, 으윽……
 </t>
   </si>
   <si>
